--- a/CourseSchedule.xlsx
+++ b/CourseSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uark-my.sharepoint.com/personal/xz035_uark_edu/Documents/GitHub/DataAnalytics/DataAnalytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AFA1665-26E4-42FD-AFA8-53731E5C4C9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{0AFA1665-26E4-42FD-AFA8-53731E5C4C9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BAF7F0DF-49E3-4925-8FC2-7666A3D572D9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BAE26134-B1F6-421C-B389-58AA43703389}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
   <si>
     <t>Week</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>WSJ—Investor need to re-learn read:</t>
-  </si>
-  <si>
-    <t>https://uark-my.sharepoint.com/:b:/g/personal/xz035_uark_edu/ESrlIqGKdB1BjBf9rwpILBABkOrLpoGRilXTKvYsiPRFFg?e=hBy7Bm</t>
   </si>
   <si>
     <t>Week 2</t>
@@ -264,6 +261,15 @@
   </si>
   <si>
     <t>https://github.com/ehmatthes/pcc_2e/</t>
+  </si>
+  <si>
+    <t>In the Documents folder on Github: https://github.com/CinderZhang/DataAnalytics</t>
+  </si>
+  <si>
+    <t>Course Github</t>
+  </si>
+  <si>
+    <t>https://github.com/CinderZhang/DataAnalytics</t>
   </si>
 </sst>
 </file>
@@ -429,7 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -476,16 +482,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -804,7 +811,7 @@
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,25 +822,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
@@ -845,7 +859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
@@ -856,8 +870,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
@@ -865,59 +879,59 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
       <c r="B7" s="5"/>
       <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
       <c r="B8" s="6"/>
       <c r="C8" s="9" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
       <c r="B11" s="5"/>
       <c r="C11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="5"/>
       <c r="C12" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
       <c r="B13" s="5"/>
       <c r="C13" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -927,174 +941,174 @@
     </row>
     <row r="15" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="102" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
       <c r="B18" s="5"/>
       <c r="C18" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="6"/>
       <c r="C19" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="3" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
       <c r="B22" s="5"/>
       <c r="C22" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="5"/>
       <c r="C23" s="10"/>
     </row>
-    <row r="24" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
       <c r="B24" s="5"/>
       <c r="C24" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18"/>
       <c r="B25" s="6"/>
       <c r="C25" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="B26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
       <c r="B27" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="18"/>
     </row>
-    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="C28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="3" t="s">
+    </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="252.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
+      <c r="B31" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="C31" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="11" t="s">
+    </row>
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+      <c r="B32" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="C32" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="299.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="17" t="s">
-        <v>47</v>
-      </c>
       <c r="C34" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1102,69 +1116,69 @@
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
     </row>
-    <row r="36" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>49</v>
-      </c>
       <c r="C36" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="C37" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
+      <c r="B40" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="C40" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="C41" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1172,33 +1186,34 @@
       <c r="B43" s="18"/>
       <c r="C43" s="11"/>
     </row>
-    <row r="44" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="C44" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18"/>
       <c r="B45" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="B28:B30"/>
@@ -1206,22 +1221,25 @@
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" display="https://www.anaconda.com/blog/six-soft-skills-for-every-data-scientist" xr:uid="{B763A0E9-D28D-4C09-8759-A058B3321BD2}"/>
-    <hyperlink ref="C8" r:id="rId2" display="../../../../../../:b:/g/personal/xz035_uark_edu/ESrlIqGKdB1BjBf9rwpILBABkOrLpoGRilXTKvYsiPRFFg?e=hBy7Bm" xr:uid="{2641EC7A-76D2-45C4-97AE-763BBD941DE3}"/>
-    <hyperlink ref="C11" r:id="rId3" display="https://www.sec.gov/edgar/quickedgar.htm" xr:uid="{0A268CB8-EEC3-407C-BE6F-C56B3A98CE74}"/>
-    <hyperlink ref="C13" r:id="rId4" xr:uid="{ED118044-85E4-4B3B-88EB-8502A4C99FFC}"/>
-    <hyperlink ref="C22" r:id="rId5" xr:uid="{8B1E71D3-DB4A-4D7A-9339-A8A0B31596FF}"/>
-    <hyperlink ref="C24" r:id="rId6" display="https://papers.ssrn.com/sol3/papers.cfm?abstract_id=3031977" xr:uid="{6747DE7B-D4F8-4A24-94F5-420817949E07}"/>
+    <hyperlink ref="C11" r:id="rId2" display="https://www.sec.gov/edgar/quickedgar.htm" xr:uid="{0A268CB8-EEC3-407C-BE6F-C56B3A98CE74}"/>
+    <hyperlink ref="C13" r:id="rId3" xr:uid="{ED118044-85E4-4B3B-88EB-8502A4C99FFC}"/>
+    <hyperlink ref="C22" r:id="rId4" xr:uid="{8B1E71D3-DB4A-4D7A-9339-A8A0B31596FF}"/>
+    <hyperlink ref="C24" r:id="rId5" display="https://papers.ssrn.com/sol3/papers.cfm?abstract_id=3031977" xr:uid="{6747DE7B-D4F8-4A24-94F5-420817949E07}"/>
+    <hyperlink ref="B1" r:id="rId6" xr:uid="{047A5569-2ECA-42F9-8C85-5188A8763B12}"/>
+    <hyperlink ref="B2" r:id="rId7" xr:uid="{A2D6068E-3B26-4FBB-9A16-372513DCE291}"/>
+    <hyperlink ref="C2" r:id="rId8" xr:uid="{0711E2FA-309E-477E-A193-8F7CA9B85197}"/>
+    <hyperlink ref="B3" r:id="rId9" xr:uid="{89BE76D0-02FF-40CF-A0CD-40221B42ADA9}"/>
+    <hyperlink ref="C8" r:id="rId10" xr:uid="{FC46F82C-A165-407B-A6E5-A9F2EFBF5C52}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/CourseSchedule.xlsx
+++ b/CourseSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uark-my.sharepoint.com/personal/xz035_uark_edu/Documents/GitHub/DataAnalytics/DataAnalytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{0AFA1665-26E4-42FD-AFA8-53731E5C4C9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BAF7F0DF-49E3-4925-8FC2-7666A3D572D9}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{0AFA1665-26E4-42FD-AFA8-53731E5C4C9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BD3AC36B-B389-45F0-A714-4AB2DE308999}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BAE26134-B1F6-421C-B389-58AA43703389}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
   <si>
     <t>Week</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Homework 1 assigned.</t>
   </si>
   <si>
-    <t>Reading: https://www.sec.gov/edgar/quickedgar.htm</t>
-  </si>
-  <si>
     <t>https://codingandfun.com/scraping-sec-edgar-python/</t>
   </si>
   <si>
@@ -94,6 +91,181 @@
   </si>
   <si>
     <t>Team and Personal Prj topic Decision Due.</t>
+  </si>
+  <si>
+    <t>by LAUREN COHEN, CHRISTOPHER MALLOY and QUOC NGUYEN</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/abs/10.1111/jofi.12885</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>User Input And While Loops</t>
+  </si>
+  <si>
+    <t>Chapter 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reading: </t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/useful-sentiment-analysis-mining-sec-filings-part-1-358942fc98ed</t>
+  </si>
+  <si>
+    <t>Information Acquisition and Expected Returns:Evidence from EDGAR Search Traffic</t>
+  </si>
+  <si>
+    <t>By Frank Weikai Li and Chenzhu Sun</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Functions And Classes.</t>
+  </si>
+  <si>
+    <t>Chapter 8,9</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>File And Exceptions; Testing Your Code.</t>
+  </si>
+  <si>
+    <t>Chapter 10,11</t>
+  </si>
+  <si>
+    <t>Homework  1 due.</t>
+  </si>
+  <si>
+    <t>Homework 2 assigned.</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Lecture Notes</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Mid-Term Exam</t>
+  </si>
+  <si>
+    <t>Homework 2 due.</t>
+  </si>
+  <si>
+    <t>Homework 3 assigned.</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Financial Data Sources; Loading Data; Data Cleaning; Data Handling; Data Visualization; Working with Stock and Fixed income Data;</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Data Manipulation; SQL</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Analyzing Stock Data; Regression Analysis; CAPM and Factor Model</t>
+  </si>
+  <si>
+    <t>Homework 3 due.</t>
+  </si>
+  <si>
+    <t>Homework 4 assigned.</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Working with Portfolios And Indices; Asset allocation</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Working with Fixed Income Data; Yield; Duration; Default Risk</t>
+  </si>
+  <si>
+    <t>Homework 4 due.</t>
+  </si>
+  <si>
+    <t>Week 14-16</t>
+  </si>
+  <si>
+    <t>Project focus weeks</t>
+  </si>
+  <si>
+    <t>Presentation by the last class(es)</t>
+  </si>
+  <si>
+    <t>Team Project Due.</t>
+  </si>
+  <si>
+    <t>Peer Evaluation Due.</t>
+  </si>
+  <si>
+    <t>Chapter 5,6
+Regular Expression:
+ https://www.youtube.com/watch?v=K8L6KVGG-7o
+https://www.w3schools.com/python/python_regex.asp</t>
+  </si>
+  <si>
+    <t>Python Variables; Data Types; Lists; Dataframe</t>
+  </si>
+  <si>
+    <t>https://sraf.nd.edu/textual-analysis/</t>
+  </si>
+  <si>
+    <t>Textual Analysis</t>
+  </si>
+  <si>
+    <t>Python Crash Course</t>
+  </si>
+  <si>
+    <t>https://ehmatthes.github.io/pcc/</t>
+  </si>
+  <si>
+    <t>https://github.com/ehmatthes/pcc_2e/</t>
+  </si>
+  <si>
+    <t>In the Documents folder on Github: https://github.com/CinderZhang/DataAnalytics</t>
+  </si>
+  <si>
+    <t>Course Github</t>
+  </si>
+  <si>
+    <t>https://github.com/CinderZhang/DataAnalytics</t>
+  </si>
+  <si>
+    <t>https://www.dataiku.com/learn/webinars/your-path-to-nlp-mastery-with-dataiku-dss/</t>
+  </si>
+  <si>
+    <t>Hands-on beyond Python:</t>
+  </si>
+  <si>
+    <t>https://www.dataiku.com/learn/webinars/getting-started-with-nlp/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More Python Packages: Panda, Numpy, Scipy, and Matplotlib; DataFrame; Data Visualization Basics
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://www.sec.gov/edgar/quickedgar.htm</t>
+  </si>
+  <si>
+    <t>Reading:</t>
   </si>
   <si>
     <r>
@@ -101,182 +273,21 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <b/>
+        <i/>
+        <sz val="12"/>
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">Lazy Prices </t>
     </r>
   </si>
-  <si>
-    <t>by LAUREN COHEN, CHRISTOPHER MALLOY and QUOC NGUYEN</t>
-  </si>
-  <si>
-    <t>https://onlinelibrary.wiley.com/doi/abs/10.1111/jofi.12885</t>
-  </si>
-  <si>
-    <t>Week 4</t>
-  </si>
-  <si>
-    <t>User Input And While Loops</t>
-  </si>
-  <si>
-    <t>Chapter 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reading: </t>
-  </si>
-  <si>
-    <t>https://towardsdatascience.com/useful-sentiment-analysis-mining-sec-filings-part-1-358942fc98ed</t>
-  </si>
-  <si>
-    <t>Information Acquisition and Expected Returns:Evidence from EDGAR Search Traffic</t>
-  </si>
-  <si>
-    <t>By Frank Weikai Li and Chenzhu Sun</t>
-  </si>
-  <si>
-    <t>Week 5</t>
-  </si>
-  <si>
-    <t>Functions And Classes.</t>
-  </si>
-  <si>
-    <t>Chapter 8,9</t>
-  </si>
-  <si>
-    <t>Week 6</t>
-  </si>
-  <si>
-    <t>File And Exceptions; Testing Your Code.</t>
-  </si>
-  <si>
-    <t>Chapter 10,11</t>
-  </si>
-  <si>
-    <t>Homework  1 due.</t>
-  </si>
-  <si>
-    <t>Homework 2 assigned.</t>
-  </si>
-  <si>
-    <t>Week 7</t>
-  </si>
-  <si>
-    <t>More Python Packages: Panda, Numpy, Scipy, and Matplotlib; DataFrame; Data Visualization Basics</t>
-  </si>
-  <si>
-    <t>Lecture Notes</t>
-  </si>
-  <si>
-    <t>Week 8</t>
-  </si>
-  <si>
-    <t>Mid-Term Exam</t>
-  </si>
-  <si>
-    <t>Homework 2 due.</t>
-  </si>
-  <si>
-    <t>Homework 3 assigned.</t>
-  </si>
-  <si>
-    <t>Week 9</t>
-  </si>
-  <si>
-    <t>Financial Data Sources; Loading Data; Data Cleaning; Data Handling; Data Visualization; Working with Stock and Fixed income Data;</t>
-  </si>
-  <si>
-    <t>Week 10</t>
-  </si>
-  <si>
-    <t>Data Manipulation; SQL</t>
-  </si>
-  <si>
-    <t>Week 11</t>
-  </si>
-  <si>
-    <t>Analyzing Stock Data; Regression Analysis; CAPM and Factor Model</t>
-  </si>
-  <si>
-    <t>Homework 3 due.</t>
-  </si>
-  <si>
-    <t>Homework 4 assigned.</t>
-  </si>
-  <si>
-    <t>Week 12</t>
-  </si>
-  <si>
-    <t>Working with Portfolios And Indices; Asset allocation</t>
-  </si>
-  <si>
-    <t>Week 13</t>
-  </si>
-  <si>
-    <t>Working with Fixed Income Data; Yield; Duration; Default Risk</t>
-  </si>
-  <si>
-    <t>Homework 4 due.</t>
-  </si>
-  <si>
-    <t>Week 14-16</t>
-  </si>
-  <si>
-    <t>Project focus weeks</t>
-  </si>
-  <si>
-    <t>Presentation by the last class(es)</t>
-  </si>
-  <si>
-    <t>Team Project Due.</t>
-  </si>
-  <si>
-    <t>Peer Evaluation Due.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t>Chapter 5,6
-Regular Expression:
- https://www.youtube.com/watch?v=K8L6KVGG-7o
-https://www.w3schools.com/python/python_regex.asp</t>
-  </si>
-  <si>
-    <t>Python Variables; Data Types; Lists; Dataframe</t>
-  </si>
-  <si>
-    <t>https://sraf.nd.edu/textual-analysis/</t>
-  </si>
-  <si>
-    <t>Textual Analysis</t>
-  </si>
-  <si>
-    <t>Python Crash Course</t>
-  </si>
-  <si>
-    <t>https://ehmatthes.github.io/pcc/</t>
-  </si>
-  <si>
-    <t>https://github.com/ehmatthes/pcc_2e/</t>
-  </si>
-  <si>
-    <t>In the Documents folder on Github: https://github.com/CinderZhang/DataAnalytics</t>
-  </si>
-  <si>
-    <t>Course Github</t>
-  </si>
-  <si>
-    <t>https://github.com/CinderZhang/DataAnalytics</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +339,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -337,7 +378,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -430,12 +471,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -493,6 +562,36 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -808,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09660D08-651A-4613-97E3-8EE97D7A01E7}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,29 +922,29 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -860,7 +959,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -871,7 +970,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
@@ -880,366 +979,364 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="5"/>
       <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="6"/>
       <c r="C8" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>65</v>
+      <c r="B9" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="31" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="C17" s="12" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="5"/>
       <c r="C18" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="6"/>
       <c r="C19" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="C20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="3" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="5"/>
       <c r="C22" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="5"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="C23" s="10"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="5"/>
+    <row r="24" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="C24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="6"/>
       <c r="C25" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="C26" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="3" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="22"/>
+      <c r="B27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="22"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="B28" s="21" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="18"/>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="C28" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="4" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="26"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="27"/>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
-        <v>38</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="18"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+    <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="11" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="299.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="C35" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-    </row>
-    <row r="36" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
+      <c r="B36" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="C36" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+    </row>
+    <row r="38" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="17" t="s">
+    </row>
+    <row r="39" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="4" t="s">
+      <c r="B39" s="11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
       <c r="C39" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
+      <c r="B40" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="C40" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
+    </row>
+    <row r="42" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="11"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B43" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="4" t="s">
+      <c r="C43" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="22"/>
+      <c r="B44" s="11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="11"/>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" s="3" t="s">
+      <c r="C44" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
-      <c r="B45" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>62</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="15">
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" display="https://www.anaconda.com/blog/six-soft-skills-for-every-data-scientist" xr:uid="{B763A0E9-D28D-4C09-8759-A058B3321BD2}"/>
     <hyperlink ref="C11" r:id="rId2" display="https://www.sec.gov/edgar/quickedgar.htm" xr:uid="{0A268CB8-EEC3-407C-BE6F-C56B3A98CE74}"/>
-    <hyperlink ref="C13" r:id="rId3" xr:uid="{ED118044-85E4-4B3B-88EB-8502A4C99FFC}"/>
-    <hyperlink ref="C22" r:id="rId4" xr:uid="{8B1E71D3-DB4A-4D7A-9339-A8A0B31596FF}"/>
-    <hyperlink ref="C24" r:id="rId5" display="https://papers.ssrn.com/sol3/papers.cfm?abstract_id=3031977" xr:uid="{6747DE7B-D4F8-4A24-94F5-420817949E07}"/>
-    <hyperlink ref="B1" r:id="rId6" xr:uid="{047A5569-2ECA-42F9-8C85-5188A8763B12}"/>
-    <hyperlink ref="B2" r:id="rId7" xr:uid="{A2D6068E-3B26-4FBB-9A16-372513DCE291}"/>
-    <hyperlink ref="C2" r:id="rId8" xr:uid="{0711E2FA-309E-477E-A193-8F7CA9B85197}"/>
-    <hyperlink ref="B3" r:id="rId9" xr:uid="{89BE76D0-02FF-40CF-A0CD-40221B42ADA9}"/>
-    <hyperlink ref="C8" r:id="rId10" xr:uid="{FC46F82C-A165-407B-A6E5-A9F2EFBF5C52}"/>
+    <hyperlink ref="C22" r:id="rId3" xr:uid="{8B1E71D3-DB4A-4D7A-9339-A8A0B31596FF}"/>
+    <hyperlink ref="C24" r:id="rId4" display="https://papers.ssrn.com/sol3/papers.cfm?abstract_id=3031977" xr:uid="{6747DE7B-D4F8-4A24-94F5-420817949E07}"/>
+    <hyperlink ref="B1" r:id="rId5" xr:uid="{047A5569-2ECA-42F9-8C85-5188A8763B12}"/>
+    <hyperlink ref="B2" r:id="rId6" xr:uid="{A2D6068E-3B26-4FBB-9A16-372513DCE291}"/>
+    <hyperlink ref="C2" r:id="rId7" xr:uid="{0711E2FA-309E-477E-A193-8F7CA9B85197}"/>
+    <hyperlink ref="B3" r:id="rId8" xr:uid="{89BE76D0-02FF-40CF-A0CD-40221B42ADA9}"/>
+    <hyperlink ref="C8" r:id="rId9" xr:uid="{FC46F82C-A165-407B-A6E5-A9F2EFBF5C52}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{37CBA2D6-30E5-44A0-BBDE-86053675A0DD}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{C87CDD77-56E0-43BF-903B-517D65A175C2}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{8DD51813-E931-4A4C-A7BC-73BD6BC9DC44}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/CourseSchedule.xlsx
+++ b/CourseSchedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uark-my.sharepoint.com/personal/xz035_uark_edu/Documents/GitHub/DataAnalytics/DataAnalytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{0AFA1665-26E4-42FD-AFA8-53731E5C4C9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BD3AC36B-B389-45F0-A714-4AB2DE308999}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{0AFA1665-26E4-42FD-AFA8-53731E5C4C9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{85B7B94B-3AED-4415-B096-75230099CE7E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BAE26134-B1F6-421C-B389-58AA43703389}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BAE26134-B1F6-421C-B389-58AA43703389}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
   <si>
     <t>Week</t>
   </si>
@@ -281,6 +281,12 @@
       </rPr>
       <t xml:space="preserve">Lazy Prices </t>
     </r>
+  </si>
+  <si>
+    <t>https://github.com/CinderZhang/Edgar</t>
+  </si>
+  <si>
+    <t>Edgar Related Resources</t>
   </si>
 </sst>
 </file>
@@ -562,15 +568,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -592,6 +589,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -907,15 +913,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09660D08-651A-4613-97E3-8EE97D7A01E7}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
     <col min="3" max="3" width="81.5703125" customWidth="1"/>
   </cols>
@@ -939,7 +945,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>68</v>
       </c>
@@ -947,394 +953,402 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+    <row r="6" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="4" t="s">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="9" t="s">
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B10" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="19" t="s">
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="31"/>
+      <c r="B11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C11" s="29" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="28" t="s">
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="29" t="s">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="7" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="31" t="s">
+    <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="32"/>
+      <c r="B15" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="3" t="s">
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
+      <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="3" t="s">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="31"/>
+      <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C18" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="8" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="13" t="s">
+    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="32"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="3" t="s">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="7" t="s">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="4" t="s">
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="10"/>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
-      <c r="B24" s="11" t="s">
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
+      <c r="B25" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="14" t="s">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="32"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C27" s="30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
-      <c r="B27" s="11" t="s">
+    <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="32"/>
+      <c r="B28" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="22"/>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="C28" s="32"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B29" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C29" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="26"/>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="27"/>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="23"/>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="24"/>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B32" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="18"/>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="C32" s="18"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B33" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="11" t="s">
+    <row r="34" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="299.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+    <row r="35" spans="1:3" ht="299.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B35" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C35" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="24" t="s">
+    <row r="36" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B36" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C36" s="22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+    <row r="37" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B37" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="4" t="s">
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="11" t="s">
+    <row r="39" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
+    <row r="40" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B40" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C40" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+    <row r="41" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B41" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="4" t="s">
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="11"/>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
+    <row r="43" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="11"/>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
-      <c r="B44" s="11" t="s">
+    <row r="45" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="32"/>
+      <c r="B45" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C45" s="13" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A44:A45"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" display="https://www.anaconda.com/blog/six-soft-skills-for-every-data-scientist" xr:uid="{B763A0E9-D28D-4C09-8759-A058B3321BD2}"/>
-    <hyperlink ref="C11" r:id="rId2" display="https://www.sec.gov/edgar/quickedgar.htm" xr:uid="{0A268CB8-EEC3-407C-BE6F-C56B3A98CE74}"/>
-    <hyperlink ref="C22" r:id="rId3" xr:uid="{8B1E71D3-DB4A-4D7A-9339-A8A0B31596FF}"/>
-    <hyperlink ref="C24" r:id="rId4" display="https://papers.ssrn.com/sol3/papers.cfm?abstract_id=3031977" xr:uid="{6747DE7B-D4F8-4A24-94F5-420817949E07}"/>
+    <hyperlink ref="C7" r:id="rId1" display="https://www.anaconda.com/blog/six-soft-skills-for-every-data-scientist" xr:uid="{B763A0E9-D28D-4C09-8759-A058B3321BD2}"/>
+    <hyperlink ref="C12" r:id="rId2" display="https://www.sec.gov/edgar/quickedgar.htm" xr:uid="{0A268CB8-EEC3-407C-BE6F-C56B3A98CE74}"/>
+    <hyperlink ref="C23" r:id="rId3" xr:uid="{8B1E71D3-DB4A-4D7A-9339-A8A0B31596FF}"/>
+    <hyperlink ref="C25" r:id="rId4" display="https://papers.ssrn.com/sol3/papers.cfm?abstract_id=3031977" xr:uid="{6747DE7B-D4F8-4A24-94F5-420817949E07}"/>
     <hyperlink ref="B1" r:id="rId5" xr:uid="{047A5569-2ECA-42F9-8C85-5188A8763B12}"/>
     <hyperlink ref="B2" r:id="rId6" xr:uid="{A2D6068E-3B26-4FBB-9A16-372513DCE291}"/>
     <hyperlink ref="C2" r:id="rId7" xr:uid="{0711E2FA-309E-477E-A193-8F7CA9B85197}"/>
     <hyperlink ref="B3" r:id="rId8" xr:uid="{89BE76D0-02FF-40CF-A0CD-40221B42ADA9}"/>
-    <hyperlink ref="C8" r:id="rId9" xr:uid="{FC46F82C-A165-407B-A6E5-A9F2EFBF5C52}"/>
-    <hyperlink ref="B12" r:id="rId10" xr:uid="{37CBA2D6-30E5-44A0-BBDE-86053675A0DD}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{C87CDD77-56E0-43BF-903B-517D65A175C2}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{8DD51813-E931-4A4C-A7BC-73BD6BC9DC44}"/>
+    <hyperlink ref="C9" r:id="rId9" xr:uid="{FC46F82C-A165-407B-A6E5-A9F2EFBF5C52}"/>
+    <hyperlink ref="B13" r:id="rId10" xr:uid="{37CBA2D6-30E5-44A0-BBDE-86053675A0DD}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{C87CDD77-56E0-43BF-903B-517D65A175C2}"/>
+    <hyperlink ref="C14" r:id="rId12" xr:uid="{8DD51813-E931-4A4C-A7BC-73BD6BC9DC44}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>

--- a/CourseSchedule.xlsx
+++ b/CourseSchedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uark-my.sharepoint.com/personal/xz035_uark_edu/Documents/GitHub/DataAnalytics/DataAnalytics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xz035\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{0AFA1665-26E4-42FD-AFA8-53731E5C4C9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{85B7B94B-3AED-4415-B096-75230099CE7E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D73529-74C1-42A9-98F4-E92A75EF499E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BAE26134-B1F6-421C-B389-58AA43703389}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="29692" windowHeight="11949" xr2:uid="{BAE26134-B1F6-421C-B389-58AA43703389}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
   <si>
     <t>Week</t>
   </si>
@@ -288,12 +288,15 @@
   <si>
     <t>Edgar Related Resources</t>
   </si>
+  <si>
+    <t>Regular Expression</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,6 +378,14 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -510,7 +521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -597,6 +608,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -916,17 +930,17 @@
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="3" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.3828125" customWidth="1"/>
+    <col min="2" max="2" width="43.84375" customWidth="1"/>
+    <col min="3" max="3" width="81.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>63</v>
       </c>
@@ -934,7 +948,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="16" t="s">
         <v>64</v>
       </c>
@@ -945,7 +959,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="16" t="s">
         <v>68</v>
       </c>
@@ -953,7 +967,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
         <v>78</v>
       </c>
@@ -961,7 +975,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -972,7 +986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.4">
       <c r="A6" s="30" t="s">
         <v>3</v>
       </c>
@@ -983,7 +997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="31"/>
       <c r="B7" s="4" t="s">
         <v>5</v>
@@ -992,21 +1006,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="31"/>
       <c r="B8" s="5"/>
       <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="32"/>
       <c r="B9" s="6"/>
       <c r="C9" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.4">
       <c r="A10" s="30" t="s">
         <v>9</v>
       </c>
@@ -1017,7 +1031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A11" s="31"/>
       <c r="B11" s="19" t="s">
         <v>10</v>
@@ -1026,7 +1040,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A12" s="31"/>
       <c r="B12" s="25" t="s">
         <v>71</v>
@@ -1035,7 +1049,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A13" s="31"/>
       <c r="B13" s="26" t="s">
         <v>70</v>
@@ -1044,21 +1058,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="31"/>
       <c r="B14" s="27"/>
       <c r="C14" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="32"/>
       <c r="B15" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="11"/>
     </row>
-    <row r="16" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.4">
       <c r="A16" s="30" t="s">
         <v>14</v>
       </c>
@@ -1069,7 +1083,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A17" s="31"/>
       <c r="B17" s="3" t="s">
         <v>16</v>
@@ -1078,7 +1092,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A18" s="31"/>
       <c r="B18" s="3" t="s">
         <v>17</v>
@@ -1087,21 +1101,21 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="31"/>
       <c r="B19" s="5"/>
       <c r="C19" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="32"/>
       <c r="B20" s="6"/>
       <c r="C20" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A21" s="30" t="s">
         <v>21</v>
       </c>
@@ -1112,7 +1126,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A22" s="31"/>
       <c r="B22" s="3" t="s">
         <v>16</v>
@@ -1121,21 +1135,23 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A23" s="31"/>
-      <c r="B23" s="5"/>
+      <c r="B23" s="33" t="s">
+        <v>79</v>
+      </c>
       <c r="C23" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="31"/>
       <c r="B24" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="10"/>
     </row>
-    <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="31"/>
       <c r="B25" s="11" t="s">
         <v>35</v>
@@ -1144,14 +1160,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="32"/>
       <c r="B26" s="6"/>
       <c r="C26" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A27" s="30" t="s">
         <v>28</v>
       </c>
@@ -1162,14 +1178,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="32"/>
       <c r="B28" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="32"/>
     </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A29" s="30" t="s">
         <v>31</v>
       </c>
@@ -1180,17 +1196,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="31"/>
       <c r="B30" s="31"/>
       <c r="C30" s="23"/>
     </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="32"/>
       <c r="B31" s="32"/>
       <c r="C31" s="24"/>
     </row>
-    <row r="32" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="15" t="s">
         <v>36</v>
       </c>
@@ -1199,7 +1215,7 @@
       </c>
       <c r="C32" s="18"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A33" s="30" t="s">
         <v>38</v>
       </c>
@@ -1210,14 +1226,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="32"/>
       <c r="B34" s="32"/>
       <c r="C34" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="299.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="299.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="17" t="s">
         <v>42</v>
       </c>
@@ -1228,7 +1244,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="21" t="s">
         <v>44</v>
       </c>
@@ -1239,7 +1255,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="30" t="s">
         <v>46</v>
       </c>
@@ -1250,21 +1266,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A38" s="31"/>
       <c r="B38" s="31"/>
       <c r="C38" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="32"/>
       <c r="B39" s="32"/>
       <c r="C39" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="30.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="15" t="s">
         <v>50</v>
       </c>
@@ -1275,7 +1291,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="30" t="s">
         <v>52</v>
       </c>
@@ -1286,19 +1302,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A42" s="31"/>
       <c r="B42" s="31"/>
       <c r="C42" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="32"/>
       <c r="B43" s="32"/>
       <c r="C43" s="11"/>
     </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A44" s="30" t="s">
         <v>55</v>
       </c>
@@ -1309,7 +1325,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="32"/>
       <c r="B45" s="11" t="s">
         <v>57</v>
@@ -1320,21 +1336,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C27:C28"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A16:A20"/>
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A44:A45"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" display="https://www.anaconda.com/blog/six-soft-skills-for-every-data-scientist" xr:uid="{B763A0E9-D28D-4C09-8759-A058B3321BD2}"/>

--- a/CourseSchedule.xlsx
+++ b/CourseSchedule.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xz035\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uark-my.sharepoint.com/personal/xz035_uark_edu/Documents/GitHub/DataAnalytics/DataAnalytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D73529-74C1-42A9-98F4-E92A75EF499E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{B8D73529-74C1-42A9-98F4-E92A75EF499E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{976D50CC-FD3A-4D92-B6DA-710734AF2B52}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="29692" windowHeight="11949" xr2:uid="{BAE26134-B1F6-421C-B389-58AA43703389}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
   <si>
     <t>Week</t>
   </si>
@@ -290,6 +290,15 @@
   </si>
   <si>
     <t>Regular Expression</t>
+  </si>
+  <si>
+    <t>Python for Finance</t>
+  </si>
+  <si>
+    <t>https://github.com/yhilpisch/py4fi2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Readings: 5.1, 5.2 and 5.3 </t>
   </si>
 </sst>
 </file>
@@ -521,7 +530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -603,14 +612,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -927,20 +942,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09660D08-651A-4613-97E3-8EE97D7A01E7}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.3828125" customWidth="1"/>
-    <col min="2" max="2" width="43.84375" customWidth="1"/>
-    <col min="3" max="3" width="81.53515625" customWidth="1"/>
+    <col min="1" max="1" width="24.36328125" customWidth="1"/>
+    <col min="2" max="2" width="43.81640625" customWidth="1"/>
+    <col min="3" max="3" width="81.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>63</v>
       </c>
@@ -948,7 +963,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>64</v>
       </c>
@@ -959,412 +974,422 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="20"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B4" s="20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="16" t="s">
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B5" s="20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.4">
-      <c r="A6" s="30" t="s">
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.35">
+      <c r="A7" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A7" s="31"/>
-      <c r="B7" s="4" t="s">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" s="34"/>
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="31"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="34"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="32"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="9" t="s">
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="35"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.4">
-      <c r="A10" s="30" t="s">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.35">
+      <c r="A11" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B11" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A11" s="31"/>
-      <c r="B11" s="19" t="s">
+    <row r="12" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="34"/>
+      <c r="B12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C12" s="29" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A12" s="31"/>
-      <c r="B12" s="25" t="s">
+    <row r="13" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="34"/>
+      <c r="B13" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A13" s="31"/>
-      <c r="B13" s="26" t="s">
+    <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="34"/>
+      <c r="B14" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="31"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="7" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="34"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="32"/>
-      <c r="B15" s="28" t="s">
+    <row r="16" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="35"/>
+      <c r="B16" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.4">
-      <c r="A16" s="30" t="s">
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+      <c r="A17" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A17" s="31"/>
-      <c r="B17" s="3" t="s">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A18" s="34"/>
+      <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A18" s="31"/>
-      <c r="B18" s="3" t="s">
+    <row r="19" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="34"/>
+      <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C19" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="31"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="8" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="34"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="32"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="13" t="s">
+    <row r="21" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="35"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A21" s="30" t="s">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A22" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A22" s="31"/>
-      <c r="B22" s="3" t="s">
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A23" s="34"/>
+      <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A23" s="31"/>
-      <c r="B23" s="33" t="s">
+    <row r="24" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="34"/>
+      <c r="B24" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A24" s="31"/>
-      <c r="B24" s="4" t="s">
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A25" s="34"/>
+      <c r="B25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="10"/>
-    </row>
-    <row r="25" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="31"/>
-      <c r="B25" s="11" t="s">
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="34"/>
+      <c r="B26" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="32"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="14" t="s">
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="35"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A27" s="30" t="s">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A28" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C28" s="30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="32"/>
-      <c r="B28" s="11" t="s">
+    <row r="29" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="35"/>
+      <c r="B29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="32"/>
-    </row>
-    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A29" s="30" t="s">
+      <c r="C29" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A30" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B30" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C30" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="23"/>
-    </row>
-    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="24"/>
-    </row>
-    <row r="32" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="15" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="23"/>
+    </row>
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="24"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B33" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="18"/>
-    </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A33" s="30" t="s">
+      <c r="C33" s="18"/>
+    </row>
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A34" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B34" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="11" t="s">
+    <row r="35" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="299.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="17" t="s">
+    <row r="36" spans="1:3" ht="299.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B36" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C36" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="21" t="s">
+    <row r="37" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B37" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C37" s="22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="30" t="s">
+    <row r="38" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B38" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="4" t="s">
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="11" t="s">
+    <row r="40" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30.45" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="15" t="s">
+    <row r="41" spans="1:3" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B41" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C41" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="30" t="s">
+    <row r="42" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B42" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="4" t="s">
+    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="11"/>
-    </row>
-    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A44" s="30" t="s">
+    <row r="44" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="11"/>
+    </row>
+    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A45" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="32"/>
-      <c r="B45" s="11" t="s">
+    <row r="46" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="35"/>
+      <c r="B46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C46" s="13" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A27:A28"/>
+  <mergeCells count="14">
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A45:A46"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" display="https://www.anaconda.com/blog/six-soft-skills-for-every-data-scientist" xr:uid="{B763A0E9-D28D-4C09-8759-A058B3321BD2}"/>
-    <hyperlink ref="C12" r:id="rId2" display="https://www.sec.gov/edgar/quickedgar.htm" xr:uid="{0A268CB8-EEC3-407C-BE6F-C56B3A98CE74}"/>
-    <hyperlink ref="C23" r:id="rId3" xr:uid="{8B1E71D3-DB4A-4D7A-9339-A8A0B31596FF}"/>
-    <hyperlink ref="C25" r:id="rId4" display="https://papers.ssrn.com/sol3/papers.cfm?abstract_id=3031977" xr:uid="{6747DE7B-D4F8-4A24-94F5-420817949E07}"/>
+    <hyperlink ref="C8" r:id="rId1" display="https://www.anaconda.com/blog/six-soft-skills-for-every-data-scientist" xr:uid="{B763A0E9-D28D-4C09-8759-A058B3321BD2}"/>
+    <hyperlink ref="C13" r:id="rId2" display="https://www.sec.gov/edgar/quickedgar.htm" xr:uid="{0A268CB8-EEC3-407C-BE6F-C56B3A98CE74}"/>
+    <hyperlink ref="C24" r:id="rId3" xr:uid="{8B1E71D3-DB4A-4D7A-9339-A8A0B31596FF}"/>
+    <hyperlink ref="C26" r:id="rId4" display="https://papers.ssrn.com/sol3/papers.cfm?abstract_id=3031977" xr:uid="{6747DE7B-D4F8-4A24-94F5-420817949E07}"/>
     <hyperlink ref="B1" r:id="rId5" xr:uid="{047A5569-2ECA-42F9-8C85-5188A8763B12}"/>
     <hyperlink ref="B2" r:id="rId6" xr:uid="{A2D6068E-3B26-4FBB-9A16-372513DCE291}"/>
     <hyperlink ref="C2" r:id="rId7" xr:uid="{0711E2FA-309E-477E-A193-8F7CA9B85197}"/>
-    <hyperlink ref="B3" r:id="rId8" xr:uid="{89BE76D0-02FF-40CF-A0CD-40221B42ADA9}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{FC46F82C-A165-407B-A6E5-A9F2EFBF5C52}"/>
-    <hyperlink ref="B13" r:id="rId10" xr:uid="{37CBA2D6-30E5-44A0-BBDE-86053675A0DD}"/>
-    <hyperlink ref="C13" r:id="rId11" xr:uid="{C87CDD77-56E0-43BF-903B-517D65A175C2}"/>
-    <hyperlink ref="C14" r:id="rId12" xr:uid="{8DD51813-E931-4A4C-A7BC-73BD6BC9DC44}"/>
+    <hyperlink ref="B4" r:id="rId8" xr:uid="{89BE76D0-02FF-40CF-A0CD-40221B42ADA9}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{FC46F82C-A165-407B-A6E5-A9F2EFBF5C52}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{37CBA2D6-30E5-44A0-BBDE-86053675A0DD}"/>
+    <hyperlink ref="C14" r:id="rId11" xr:uid="{C87CDD77-56E0-43BF-903B-517D65A175C2}"/>
+    <hyperlink ref="C15" r:id="rId12" xr:uid="{8DD51813-E931-4A4C-A7BC-73BD6BC9DC44}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>

--- a/CourseSchedule.xlsx
+++ b/CourseSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uark-my.sharepoint.com/personal/xz035_uark_edu/Documents/GitHub/DataAnalytics/DataAnalytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{B8D73529-74C1-42A9-98F4-E92A75EF499E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{976D50CC-FD3A-4D92-B6DA-710734AF2B52}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{B8D73529-74C1-42A9-98F4-E92A75EF499E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3F993E7E-975E-4721-9F78-95EFA6578C96}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="29692" windowHeight="11949" xr2:uid="{BAE26134-B1F6-421C-B389-58AA43703389}"/>
   </bookViews>
@@ -298,7 +298,7 @@
     <t>https://github.com/yhilpisch/py4fi2nd</t>
   </si>
   <si>
-    <t xml:space="preserve">Readings: 5.1, 5.2 and 5.3 </t>
+    <t>Readings: 5.1, 5.2 and 5.3  https://github.com/CinderZhang/DataAnalytics/tree/main/Documents</t>
   </si>
 </sst>
 </file>
@@ -948,14 +948,14 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.36328125" customWidth="1"/>
-    <col min="2" max="2" width="43.81640625" customWidth="1"/>
-    <col min="3" max="3" width="81.54296875" customWidth="1"/>
+    <col min="1" max="1" width="24.3828125" customWidth="1"/>
+    <col min="2" max="2" width="43.84375" customWidth="1"/>
+    <col min="3" max="3" width="81.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>63</v>
       </c>
@@ -963,7 +963,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="16" t="s">
         <v>64</v>
       </c>
@@ -974,7 +974,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="16" t="s">
         <v>80</v>
       </c>
@@ -983,7 +983,7 @@
       </c>
       <c r="C3" s="20"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="16" t="s">
         <v>68</v>
       </c>
@@ -991,7 +991,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="16" t="s">
         <v>78</v>
       </c>
@@ -999,7 +999,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.4">
       <c r="A7" s="33" t="s">
         <v>3</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A8" s="34"/>
       <c r="B8" s="4" t="s">
         <v>5</v>
@@ -1030,21 +1030,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="34"/>
       <c r="B9" s="5"/>
       <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="35"/>
       <c r="B10" s="6"/>
       <c r="C10" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.4">
       <c r="A11" s="33" t="s">
         <v>9</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A12" s="34"/>
       <c r="B12" s="19" t="s">
         <v>10</v>
@@ -1064,7 +1064,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A13" s="34"/>
       <c r="B13" s="25" t="s">
         <v>71</v>
@@ -1073,7 +1073,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A14" s="34"/>
       <c r="B14" s="26" t="s">
         <v>70</v>
@@ -1082,21 +1082,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="34"/>
       <c r="B15" s="27"/>
       <c r="C15" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="35"/>
       <c r="B16" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="11"/>
     </row>
-    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.4">
       <c r="A17" s="33" t="s">
         <v>14</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A18" s="34"/>
       <c r="B18" s="3" t="s">
         <v>16</v>
@@ -1116,7 +1116,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A19" s="34"/>
       <c r="B19" s="3" t="s">
         <v>17</v>
@@ -1125,21 +1125,21 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="34"/>
       <c r="B20" s="5"/>
       <c r="C20" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="35"/>
       <c r="B21" s="6"/>
       <c r="C21" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A22" s="33" t="s">
         <v>21</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A23" s="34"/>
       <c r="B23" s="3" t="s">
         <v>16</v>
@@ -1159,7 +1159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A24" s="34"/>
       <c r="B24" s="32" t="s">
         <v>79</v>
@@ -1168,14 +1168,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A25" s="34"/>
       <c r="B25" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="10"/>
     </row>
-    <row r="26" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="34"/>
       <c r="B26" s="11" t="s">
         <v>35</v>
@@ -1184,14 +1184,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="35"/>
       <c r="B27" s="6"/>
       <c r="C27" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A28" s="33" t="s">
         <v>28</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="30.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="35"/>
       <c r="B29" s="11" t="s">
         <v>17</v>
@@ -1211,7 +1211,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A30" s="33" t="s">
         <v>31</v>
       </c>
@@ -1222,17 +1222,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="34"/>
       <c r="B31" s="34"/>
       <c r="C31" s="23"/>
     </row>
-    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="35"/>
       <c r="B32" s="35"/>
       <c r="C32" s="24"/>
     </row>
-    <row r="33" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="15" t="s">
         <v>36</v>
       </c>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="C33" s="18"/>
     </row>
-    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A34" s="33" t="s">
         <v>38</v>
       </c>
@@ -1252,14 +1252,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="35"/>
       <c r="B35" s="35"/>
       <c r="C35" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="299.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="299.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="17" t="s">
         <v>42</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="21" t="s">
         <v>44</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="33" t="s">
         <v>46</v>
       </c>
@@ -1292,21 +1292,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A39" s="34"/>
       <c r="B39" s="34"/>
       <c r="C39" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="35"/>
       <c r="B40" s="35"/>
       <c r="C40" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" ht="30.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="15" t="s">
         <v>50</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="33" t="s">
         <v>52</v>
       </c>
@@ -1328,19 +1328,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A43" s="34"/>
       <c r="B43" s="34"/>
       <c r="C43" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="35"/>
       <c r="B44" s="35"/>
       <c r="C44" s="11"/>
     </row>
-    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A45" s="33" t="s">
         <v>55</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="35"/>
       <c r="B46" s="11" t="s">
         <v>57</v>
@@ -1362,20 +1362,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="B38:B40"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1" display="https://www.anaconda.com/blog/six-soft-skills-for-every-data-scientist" xr:uid="{B763A0E9-D28D-4C09-8759-A058B3321BD2}"/>

--- a/CourseSchedule.xlsx
+++ b/CourseSchedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uark-my.sharepoint.com/personal/xz035_uark_edu/Documents/GitHub/DataAnalytics/DataAnalytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{B8D73529-74C1-42A9-98F4-E92A75EF499E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3F993E7E-975E-4721-9F78-95EFA6578C96}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{B8D73529-74C1-42A9-98F4-E92A75EF499E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C574D4EC-C744-4BF9-BCCE-DDB7A7AFF082}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="29692" windowHeight="11949" xr2:uid="{BAE26134-B1F6-421C-B389-58AA43703389}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BAE26134-B1F6-421C-B389-58AA43703389}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
   <si>
     <t>Week</t>
   </si>
@@ -299,6 +299,27 @@
   </si>
   <si>
     <t>Readings: 5.1, 5.2 and 5.3  https://github.com/CinderZhang/DataAnalytics/tree/main/Documents</t>
+  </si>
+  <si>
+    <t>for Mac OS:</t>
+  </si>
+  <si>
+    <t>Lesson 10: macOS File Storage Structure - Jamf 100 Course | Jamf</t>
+  </si>
+  <si>
+    <t>Programmer's Survival Guide for Mac and Ubuntu - Terminal, File System, Users and Editors</t>
+  </si>
+  <si>
+    <t>for Windows OS:</t>
+  </si>
+  <si>
+    <t>https://www.westga.edu/its/assets-its/docs/understanding_directory_structure_windows.pdf</t>
+  </si>
+  <si>
+    <t>Programmer's Survival Guide for Windows - CMD Shell, File System &amp; Source-code Editors</t>
+  </si>
+  <si>
+    <t>File Systems</t>
   </si>
 </sst>
 </file>
@@ -530,7 +551,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -626,6 +647,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -942,456 +969,510 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09660D08-651A-4613-97E3-8EE97D7A01E7}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3828125" customWidth="1"/>
-    <col min="2" max="2" width="43.84375" customWidth="1"/>
-    <col min="3" max="3" width="81.53515625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="3" width="81.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="20"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B5" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="20"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="20"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="20"/>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="20"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="20"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="20"/>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="20"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="20"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="20"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="20"/>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.4">
-      <c r="A7" s="33" t="s">
+    <row r="16" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A8" s="34"/>
-      <c r="B8" s="4" t="s">
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="34"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="8" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="35"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="9" t="s">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="35"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.4">
-      <c r="A11" s="33" t="s">
+    <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B20" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A12" s="34"/>
-      <c r="B12" s="19" t="s">
+    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="34"/>
+      <c r="B21" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C21" s="29" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A13" s="34"/>
-      <c r="B13" s="25" t="s">
+    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="34"/>
+      <c r="B22" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A14" s="34"/>
-      <c r="B14" s="26" t="s">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="34"/>
+      <c r="B23" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="34"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="7" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="35"/>
-      <c r="B16" s="28" t="s">
+    <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="35"/>
+      <c r="B25" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.4">
-      <c r="A17" s="33" t="s">
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A18" s="34"/>
-      <c r="B18" s="3" t="s">
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A19" s="34"/>
-      <c r="B19" s="3" t="s">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+      <c r="B28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="34"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="8" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="35"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="13" t="s">
+    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="35"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A22" s="33" t="s">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A23" s="34"/>
-      <c r="B23" s="3" t="s">
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="34"/>
+      <c r="B32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="34"/>
-      <c r="B24" s="32" t="s">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="34"/>
+      <c r="B33" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C33" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A25" s="34"/>
-      <c r="B25" s="4" t="s">
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="34"/>
+      <c r="B34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="10"/>
-    </row>
-    <row r="26" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="34"/>
-      <c r="B26" s="11" t="s">
+      <c r="C34" s="10"/>
+    </row>
+    <row r="35" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="34"/>
+      <c r="B35" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="35"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="14" t="s">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="35"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A28" s="33" t="s">
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C37" s="30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30.45" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="35"/>
-      <c r="B29" s="11" t="s">
+    <row r="38" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="35"/>
+      <c r="B38" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C38" s="31" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A30" s="33" t="s">
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B39" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C39" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="23"/>
-    </row>
-    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="24"/>
-    </row>
-    <row r="33" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="15" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="34"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="23"/>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="24"/>
+    </row>
+    <row r="42" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B42" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="18"/>
-    </row>
-    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A34" s="33" t="s">
+      <c r="C42" s="18"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B43" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="299.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A39" s="34"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="30.45" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A43" s="34"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="35"/>
       <c r="B44" s="35"/>
-      <c r="C44" s="11"/>
-    </row>
-    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A45" s="33" t="s">
+      <c r="C44" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="299.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="34"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="34"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="11"/>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="35"/>
-      <c r="B46" s="11" t="s">
+    <row r="55" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="35"/>
+      <c r="B55" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C55" s="13" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C8" r:id="rId1" display="https://www.anaconda.com/blog/six-soft-skills-for-every-data-scientist" xr:uid="{B763A0E9-D28D-4C09-8759-A058B3321BD2}"/>
-    <hyperlink ref="C13" r:id="rId2" display="https://www.sec.gov/edgar/quickedgar.htm" xr:uid="{0A268CB8-EEC3-407C-BE6F-C56B3A98CE74}"/>
-    <hyperlink ref="C24" r:id="rId3" xr:uid="{8B1E71D3-DB4A-4D7A-9339-A8A0B31596FF}"/>
-    <hyperlink ref="C26" r:id="rId4" display="https://papers.ssrn.com/sol3/papers.cfm?abstract_id=3031977" xr:uid="{6747DE7B-D4F8-4A24-94F5-420817949E07}"/>
-    <hyperlink ref="B1" r:id="rId5" xr:uid="{047A5569-2ECA-42F9-8C85-5188A8763B12}"/>
-    <hyperlink ref="B2" r:id="rId6" xr:uid="{A2D6068E-3B26-4FBB-9A16-372513DCE291}"/>
-    <hyperlink ref="C2" r:id="rId7" xr:uid="{0711E2FA-309E-477E-A193-8F7CA9B85197}"/>
-    <hyperlink ref="B4" r:id="rId8" xr:uid="{89BE76D0-02FF-40CF-A0CD-40221B42ADA9}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{FC46F82C-A165-407B-A6E5-A9F2EFBF5C52}"/>
-    <hyperlink ref="B14" r:id="rId10" xr:uid="{37CBA2D6-30E5-44A0-BBDE-86053675A0DD}"/>
-    <hyperlink ref="C14" r:id="rId11" xr:uid="{C87CDD77-56E0-43BF-903B-517D65A175C2}"/>
-    <hyperlink ref="C15" r:id="rId12" xr:uid="{8DD51813-E931-4A4C-A7BC-73BD6BC9DC44}"/>
+    <hyperlink ref="C17" r:id="rId1" display="https://www.anaconda.com/blog/six-soft-skills-for-every-data-scientist" xr:uid="{B763A0E9-D28D-4C09-8759-A058B3321BD2}"/>
+    <hyperlink ref="C22" r:id="rId2" display="https://www.sec.gov/edgar/quickedgar.htm" xr:uid="{0A268CB8-EEC3-407C-BE6F-C56B3A98CE74}"/>
+    <hyperlink ref="C33" r:id="rId3" xr:uid="{8B1E71D3-DB4A-4D7A-9339-A8A0B31596FF}"/>
+    <hyperlink ref="C35" r:id="rId4" display="https://papers.ssrn.com/sol3/papers.cfm?abstract_id=3031977" xr:uid="{6747DE7B-D4F8-4A24-94F5-420817949E07}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{047A5569-2ECA-42F9-8C85-5188A8763B12}"/>
+    <hyperlink ref="B1" r:id="rId6" xr:uid="{A2D6068E-3B26-4FBB-9A16-372513DCE291}"/>
+    <hyperlink ref="C1" r:id="rId7" xr:uid="{0711E2FA-309E-477E-A193-8F7CA9B85197}"/>
+    <hyperlink ref="B3" r:id="rId8" xr:uid="{89BE76D0-02FF-40CF-A0CD-40221B42ADA9}"/>
+    <hyperlink ref="C19" r:id="rId9" xr:uid="{FC46F82C-A165-407B-A6E5-A9F2EFBF5C52}"/>
+    <hyperlink ref="B23" r:id="rId10" xr:uid="{37CBA2D6-30E5-44A0-BBDE-86053675A0DD}"/>
+    <hyperlink ref="C23" r:id="rId11" xr:uid="{C87CDD77-56E0-43BF-903B-517D65A175C2}"/>
+    <hyperlink ref="C24" r:id="rId12" xr:uid="{8DD51813-E931-4A4C-A7BC-73BD6BC9DC44}"/>
+    <hyperlink ref="A9" r:id="rId13" display="https://docs.jamf.com/education-services/jamf-100-course/4.0/Lesson_10__macOS_File_Storage_Structure.html" xr:uid="{D2BA8DD5-C4FD-4CB2-A139-84A4F4997A5F}"/>
+    <hyperlink ref="A10" r:id="rId14" display="https://www3.ntu.edu.sg/home/ehchua/programming/howto/Unix_SurvivalGuide.html" xr:uid="{710BFDE2-6729-41AB-AD23-8CF9E2EC9FA4}"/>
+    <hyperlink ref="A12" r:id="rId15" xr:uid="{AE13A9B5-6080-4C4C-84D6-33011E249CB1}"/>
+    <hyperlink ref="A13" r:id="rId16" display="https://www3.ntu.edu.sg/home/ehchua/programming/howto/CMD_Survival.html" xr:uid="{2B5C8A37-648C-4060-945A-752AE7347731}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/CourseSchedule.xlsx
+++ b/CourseSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uark-my.sharepoint.com/personal/xz035_uark_edu/Documents/GitHub/DataAnalytics/DataAnalytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{B8D73529-74C1-42A9-98F4-E92A75EF499E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C574D4EC-C744-4BF9-BCCE-DDB7A7AFF082}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{B8D73529-74C1-42A9-98F4-E92A75EF499E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D0990364-0677-4CA0-B709-80CC6389D889}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BAE26134-B1F6-421C-B389-58AA43703389}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="93">
   <si>
     <t>Week</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Week 3</t>
   </si>
   <si>
-    <t>If Statement; Dictionaries</t>
-  </si>
-  <si>
     <t>Related packages and functions</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>Team and Personal Prj topic Decision Due.</t>
   </si>
   <si>
-    <t>by LAUREN COHEN, CHRISTOPHER MALLOY and QUOC NGUYEN</t>
-  </si>
-  <si>
     <t>https://onlinelibrary.wiley.com/doi/abs/10.1111/jofi.12885</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
     <t>User Input And While Loops</t>
   </si>
   <si>
-    <t>Chapter 7</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reading: </t>
   </si>
   <si>
@@ -138,12 +129,6 @@
     <t>Chapter 10,11</t>
   </si>
   <si>
-    <t>Homework  1 due.</t>
-  </si>
-  <si>
-    <t>Homework 2 assigned.</t>
-  </si>
-  <si>
     <t>Week 7</t>
   </si>
   <si>
@@ -177,15 +162,6 @@
     <t>Week 11</t>
   </si>
   <si>
-    <t>Analyzing Stock Data; Regression Analysis; CAPM and Factor Model</t>
-  </si>
-  <si>
-    <t>Homework 3 due.</t>
-  </si>
-  <si>
-    <t>Homework 4 assigned.</t>
-  </si>
-  <si>
     <t>Week 12</t>
   </si>
   <si>
@@ -202,9 +178,6 @@
   </si>
   <si>
     <t>Week 14-16</t>
-  </si>
-  <si>
-    <t>Project focus weeks</t>
   </si>
   <si>
     <t>Presentation by the last class(es)</t>
@@ -256,10 +229,6 @@
   </si>
   <si>
     <t>https://www.dataiku.com/learn/webinars/getting-started-with-nlp/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More Python Packages: Panda, Numpy, Scipy, and Matplotlib; DataFrame; Data Visualization Basics
-</t>
   </si>
   <si>
     <t xml:space="preserve"> https://www.sec.gov/edgar/quickedgar.htm</t>
@@ -289,9 +258,6 @@
     <t>Edgar Related Resources</t>
   </si>
   <si>
-    <t>Regular Expression</t>
-  </si>
-  <si>
     <t>Python for Finance</t>
   </si>
   <si>
@@ -320,13 +286,146 @@
   </si>
   <si>
     <t>File Systems</t>
+  </si>
+  <si>
+    <t>Regular Expression (2)</t>
+  </si>
+  <si>
+    <t>Regular Expression (1)-Intro</t>
+  </si>
+  <si>
+    <t>Lecture Notes, WRDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More Python Packages: Panda, Numpy, Scipy, and Matplotlib; DataFrame
+</t>
+  </si>
+  <si>
+    <t>Homework 3 due. Homework 4 assigned.</t>
+  </si>
+  <si>
+    <t>If Statement</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Exam days--No class scheduled. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Optional reading and exercise:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ https://github.com/yya518/FinBERT
+ https://github.com/yya518/FinBERT/blob/master/FinBert%20Model%20Example.ipynb </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Project focus weeks-- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Workshops</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Analyzing Stock Data; Regression Analysis; CAPM and Factor Model (2) --</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Workshops</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Chapter 7;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Homework  1 due.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Homework 2 assigned.</t>
+    </r>
+  </si>
+  <si>
+    <t>WRDS</t>
+  </si>
+  <si>
+    <t>https://wrds-www.wharton.upenn.edu/pages/dart-pathways/</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>Financial Data Analytics I</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,12 +454,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
@@ -410,6 +503,49 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -425,7 +561,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -546,12 +682,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -571,22 +748,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -608,7 +782,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -617,45 +791,72 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -969,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09660D08-651A-4613-97E3-8EE97D7A01E7}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,495 +1183,493 @@
     <col min="3" max="3" width="81.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="19"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="19"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="19"/>
+    </row>
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="19"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="19"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="19"/>
+    </row>
+    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="19"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="19"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="19"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+      <c r="B18" s="19"/>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="37"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="36"/>
+      <c r="B25" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="36"/>
+      <c r="B26" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="20"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="36"/>
+      <c r="B27" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="36"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="20"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="20"/>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="20"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+    </row>
+    <row r="29" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="37"/>
+      <c r="B29" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="10"/>
+    </row>
+    <row r="30" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A30" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="20"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="20"/>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="20"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="20"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="20"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="20"/>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="34"/>
-      <c r="B21" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
-      <c r="B25" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="11"/>
-    </row>
-    <row r="26" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="C30" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="36"/>
+      <c r="B31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="36"/>
+      <c r="B33" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="37"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="42"/>
+      <c r="B36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="42"/>
+      <c r="B37" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="42"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="40"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="7" t="s">
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="35" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="4" t="s">
+      <c r="B40" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="37"/>
+      <c r="B41" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="22"/>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="23"/>
+    </row>
+    <row r="45" spans="1:3" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="10"/>
-    </row>
-    <row r="35" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="34"/>
-      <c r="B35" s="11" t="s">
+      <c r="C45" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="35"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="35"/>
-      <c r="B38" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="33" t="s">
+    </row>
+    <row r="47" spans="1:3" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="23"/>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="24"/>
-    </row>
-    <row r="42" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="18"/>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="299.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="21" t="s">
+    </row>
+    <row r="52" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B52" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="33" t="s">
+      <c r="C52" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="33" t="s">
+    </row>
+    <row r="54" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="37"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="10"/>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="4" t="s">
+      <c r="B55" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="37"/>
+      <c r="B56" s="10" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="35"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="15" t="s">
+      <c r="C56" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="35"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="11"/>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="35"/>
-      <c r="B55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>59</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
+  <mergeCells count="12">
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A40:A41"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C17" r:id="rId1" display="https://www.anaconda.com/blog/six-soft-skills-for-every-data-scientist" xr:uid="{B763A0E9-D28D-4C09-8759-A058B3321BD2}"/>
-    <hyperlink ref="C22" r:id="rId2" display="https://www.sec.gov/edgar/quickedgar.htm" xr:uid="{0A268CB8-EEC3-407C-BE6F-C56B3A98CE74}"/>
-    <hyperlink ref="C33" r:id="rId3" xr:uid="{8B1E71D3-DB4A-4D7A-9339-A8A0B31596FF}"/>
-    <hyperlink ref="C35" r:id="rId4" display="https://papers.ssrn.com/sol3/papers.cfm?abstract_id=3031977" xr:uid="{6747DE7B-D4F8-4A24-94F5-420817949E07}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{047A5569-2ECA-42F9-8C85-5188A8763B12}"/>
-    <hyperlink ref="B1" r:id="rId6" xr:uid="{A2D6068E-3B26-4FBB-9A16-372513DCE291}"/>
-    <hyperlink ref="C1" r:id="rId7" xr:uid="{0711E2FA-309E-477E-A193-8F7CA9B85197}"/>
-    <hyperlink ref="B3" r:id="rId8" xr:uid="{89BE76D0-02FF-40CF-A0CD-40221B42ADA9}"/>
-    <hyperlink ref="C19" r:id="rId9" xr:uid="{FC46F82C-A165-407B-A6E5-A9F2EFBF5C52}"/>
-    <hyperlink ref="B23" r:id="rId10" xr:uid="{37CBA2D6-30E5-44A0-BBDE-86053675A0DD}"/>
-    <hyperlink ref="C23" r:id="rId11" xr:uid="{C87CDD77-56E0-43BF-903B-517D65A175C2}"/>
-    <hyperlink ref="C24" r:id="rId12" xr:uid="{8DD51813-E931-4A4C-A7BC-73BD6BC9DC44}"/>
-    <hyperlink ref="A9" r:id="rId13" display="https://docs.jamf.com/education-services/jamf-100-course/4.0/Lesson_10__macOS_File_Storage_Structure.html" xr:uid="{D2BA8DD5-C4FD-4CB2-A139-84A4F4997A5F}"/>
-    <hyperlink ref="A10" r:id="rId14" display="https://www3.ntu.edu.sg/home/ehchua/programming/howto/Unix_SurvivalGuide.html" xr:uid="{710BFDE2-6729-41AB-AD23-8CF9E2EC9FA4}"/>
-    <hyperlink ref="A12" r:id="rId15" xr:uid="{AE13A9B5-6080-4C4C-84D6-33011E249CB1}"/>
-    <hyperlink ref="A13" r:id="rId16" display="https://www3.ntu.edu.sg/home/ehchua/programming/howto/CMD_Survival.html" xr:uid="{2B5C8A37-648C-4060-945A-752AE7347731}"/>
+    <hyperlink ref="C21" r:id="rId1" display="https://www.anaconda.com/blog/six-soft-skills-for-every-data-scientist" xr:uid="{B763A0E9-D28D-4C09-8759-A058B3321BD2}"/>
+    <hyperlink ref="C26" r:id="rId2" display="https://www.sec.gov/edgar/quickedgar.htm" xr:uid="{0A268CB8-EEC3-407C-BE6F-C56B3A98CE74}"/>
+    <hyperlink ref="C37" r:id="rId3" xr:uid="{8B1E71D3-DB4A-4D7A-9339-A8A0B31596FF}"/>
+    <hyperlink ref="C38" r:id="rId4" display="https://papers.ssrn.com/sol3/papers.cfm?abstract_id=3031977" xr:uid="{6747DE7B-D4F8-4A24-94F5-420817949E07}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{047A5569-2ECA-42F9-8C85-5188A8763B12}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{A2D6068E-3B26-4FBB-9A16-372513DCE291}"/>
+    <hyperlink ref="C4" r:id="rId7" xr:uid="{0711E2FA-309E-477E-A193-8F7CA9B85197}"/>
+    <hyperlink ref="B6" r:id="rId8" xr:uid="{89BE76D0-02FF-40CF-A0CD-40221B42ADA9}"/>
+    <hyperlink ref="C23" r:id="rId9" xr:uid="{FC46F82C-A165-407B-A6E5-A9F2EFBF5C52}"/>
+    <hyperlink ref="B27" r:id="rId10" xr:uid="{37CBA2D6-30E5-44A0-BBDE-86053675A0DD}"/>
+    <hyperlink ref="C27" r:id="rId11" xr:uid="{C87CDD77-56E0-43BF-903B-517D65A175C2}"/>
+    <hyperlink ref="C28" r:id="rId12" xr:uid="{8DD51813-E931-4A4C-A7BC-73BD6BC9DC44}"/>
+    <hyperlink ref="A13" r:id="rId13" display="https://docs.jamf.com/education-services/jamf-100-course/4.0/Lesson_10__macOS_File_Storage_Structure.html" xr:uid="{D2BA8DD5-C4FD-4CB2-A139-84A4F4997A5F}"/>
+    <hyperlink ref="A14" r:id="rId14" display="https://www3.ntu.edu.sg/home/ehchua/programming/howto/Unix_SurvivalGuide.html" xr:uid="{710BFDE2-6729-41AB-AD23-8CF9E2EC9FA4}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{AE13A9B5-6080-4C4C-84D6-33011E249CB1}"/>
+    <hyperlink ref="A17" r:id="rId16" display="https://www3.ntu.edu.sg/home/ehchua/programming/howto/CMD_Survival.html" xr:uid="{2B5C8A37-648C-4060-945A-752AE7347731}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId17"/>

--- a/CourseSchedule.xlsx
+++ b/CourseSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uark-my.sharepoint.com/personal/xz035_uark_edu/Documents/GitHub/DataAnalytics/DataAnalytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{B8D73529-74C1-42A9-98F4-E92A75EF499E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D0990364-0677-4CA0-B709-80CC6389D889}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{B8D73529-74C1-42A9-98F4-E92A75EF499E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{34FFD655-8CEE-4FCE-9ABB-A8B93CD50047}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BAE26134-B1F6-421C-B389-58AA43703389}"/>
   </bookViews>
@@ -144,9 +144,6 @@
     <t>Homework 2 due.</t>
   </si>
   <si>
-    <t>Homework 3 assigned.</t>
-  </si>
-  <si>
     <t>Week 9</t>
   </si>
   <si>
@@ -295,10 +292,6 @@
   </si>
   <si>
     <t>Lecture Notes, WRDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More Python Packages: Panda, Numpy, Scipy, and Matplotlib; DataFrame
-</t>
   </si>
   <si>
     <t>Homework 3 due. Homework 4 assigned.</t>
@@ -420,6 +413,17 @@
   <si>
     <t>Financial Data Analytics I</t>
   </si>
+  <si>
+    <t xml:space="preserve">Textual analysis and Sentiment Analysis;  Python Package: Panda, Numpy
+</t>
+  </si>
+  <si>
+    <t>Homework 3 assigned.
+Reading: https://wrds-www.wharton.upenn.edu/pages/classroom/
+Text Analysis
+Sentiment Analysis
+https://www.dataiku.com/stories/bringing-natural-language-processing-to-the-enterprise/</t>
+  </si>
 </sst>
 </file>
 
@@ -728,7 +732,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -822,30 +826,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -854,6 +840,27 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
@@ -1172,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09660D08-651A-4613-97E3-8EE97D7A01E7}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,68 +1191,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
-        <v>92</v>
+      <c r="A1" s="40" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
-        <v>91</v>
+      <c r="A3" s="39" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="C4" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>69</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>70</v>
       </c>
       <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>59</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1253,44 +1260,44 @@
       <c r="B10" s="19"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
-        <v>78</v>
+      <c r="A11" s="39" t="s">
+        <v>77</v>
       </c>
       <c r="B11" s="19"/>
     </row>
     <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="19"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="19"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="19"/>
     </row>
     <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="19"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="19"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="19"/>
     </row>
@@ -1310,7 +1317,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="41" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1321,7 +1328,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="4" t="s">
         <v>5</v>
       </c>
@@ -1330,84 +1337,84 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="5"/>
       <c r="C22" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="6"/>
       <c r="C23" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="41" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="36"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
+      <c r="A27" s="42"/>
       <c r="B27" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="26"/>
       <c r="C28" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="10"/>
     </row>
     <row r="30" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="3" t="s">
         <v>15</v>
       </c>
@@ -1416,41 +1423,41 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="37"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="6"/>
       <c r="C34" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="44" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="31" t="s">
         <v>20</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="32" t="s">
         <v>15</v>
       </c>
@@ -1459,30 +1466,30 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
-      <c r="B37" s="38" t="s">
-        <v>79</v>
+      <c r="A37" s="45"/>
+      <c r="B37" s="35" t="s">
+        <v>78</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="32"/>
       <c r="C38" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="40"/>
-      <c r="B39" s="39"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="41" t="s">
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -1493,19 +1500,19 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="37"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C42" s="16" t="s">
@@ -1513,133 +1520,138 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
-      <c r="B43" s="36"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
       <c r="C43" s="22"/>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
       <c r="C44" s="23"/>
     </row>
     <row r="45" spans="1:3" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="37" t="s">
         <v>34</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="35" t="s">
+      <c r="A46" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="44" t="s">
+      <c r="B46" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="38" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="37"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="10" t="s">
-        <v>36</v>
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="47" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="16" t="s">
-        <v>38</v>
-      </c>
       <c r="C48" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="21" t="s">
-        <v>40</v>
-      </c>
       <c r="C49" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50" s="44" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="41" t="s">
         <v>44</v>
-      </c>
-      <c r="B52" s="35" t="s">
-        <v>45</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="36"/>
-      <c r="B53" s="36"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
       <c r="C53" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="10"/>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="41" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="37"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="10"/>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="35" t="s">
+      <c r="B55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="43"/>
+      <c r="B56" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" s="44" t="s">
+      <c r="C56" s="37" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="37"/>
-      <c r="B56" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C56" s="43" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A40:A41"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="B52:B54"/>
     <mergeCell ref="A55:A56"/>
@@ -1647,11 +1659,6 @@
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="A40:A41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C21" r:id="rId1" display="https://www.anaconda.com/blog/six-soft-skills-for-every-data-scientist" xr:uid="{B763A0E9-D28D-4C09-8759-A058B3321BD2}"/>

--- a/CourseSchedule.xlsx
+++ b/CourseSchedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uark-my.sharepoint.com/personal/xz035_uark_edu/Documents/GitHub/DataAnalytics/DataAnalytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{B8D73529-74C1-42A9-98F4-E92A75EF499E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{34FFD655-8CEE-4FCE-9ABB-A8B93CD50047}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{B8D73529-74C1-42A9-98F4-E92A75EF499E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FED3D79E-283D-460A-A8C1-C776109316E1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BAE26134-B1F6-421C-B389-58AA43703389}"/>
   </bookViews>
@@ -147,13 +147,7 @@
     <t>Week 9</t>
   </si>
   <si>
-    <t>Financial Data Sources; Loading Data; Data Cleaning; Data Handling; Data Visualization; Working with Stock and Fixed income Data;</t>
-  </si>
-  <si>
     <t>Week 10</t>
-  </si>
-  <si>
-    <t>Data Manipulation; SQL</t>
   </si>
   <si>
     <t>Week 11</t>
@@ -289,9 +283,6 @@
   </si>
   <si>
     <t>Regular Expression (1)-Intro</t>
-  </si>
-  <si>
-    <t>Lecture Notes, WRDS</t>
   </si>
   <si>
     <t>Homework 3 due. Homework 4 assigned.</t>
@@ -424,6 +415,20 @@
 Sentiment Analysis
 https://www.dataiku.com/stories/bringing-natural-language-processing-to-the-enterprise/</t>
   </si>
+  <si>
+    <t>Dataiku Workshop;</t>
+  </si>
+  <si>
+    <t>Lecture Notes, 
+WRDS:
+https://wrds-web.wharton.upenn.edu/wrds//ds/wrdsapps/wrdsbondret/index.cfm
+Bloomberg: 
+https://guides.library.yale.edu/Bloomberg/bloomberg_docs
+https://researchguides.smu.edu.sg/c.php?g=421858&amp;p=2882457</t>
+  </si>
+  <si>
+    <t>Financial Data Sources; Introduction to Fixed income Data;</t>
+  </si>
 </sst>
 </file>
 
@@ -840,26 +845,26 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1179,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09660D08-651A-4613-97E3-8EE97D7A01E7}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:B47"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,7 +1197,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1200,59 +1205,59 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1261,43 +1266,43 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" s="19"/>
     </row>
     <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="19"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13" s="19"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" s="19"/>
     </row>
     <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" s="19"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="19"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B17" s="19"/>
     </row>
@@ -1317,7 +1322,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="42" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1328,7 +1333,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="4" t="s">
         <v>5</v>
       </c>
@@ -1337,84 +1342,84 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="5"/>
       <c r="C22" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="6"/>
       <c r="C23" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="42" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="42"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="26"/>
       <c r="C28" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="43"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="10"/>
     </row>
     <row r="30" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="42" t="s">
         <v>14</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="3" t="s">
         <v>15</v>
       </c>
@@ -1423,41 +1428,41 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="6"/>
       <c r="C34" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="45" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="31" t="s">
         <v>20</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
+      <c r="A36" s="46"/>
       <c r="B36" s="32" t="s">
         <v>15</v>
       </c>
@@ -1466,30 +1471,30 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
+      <c r="A38" s="46"/>
       <c r="B38" s="32"/>
       <c r="C38" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="46"/>
+      <c r="A39" s="47"/>
       <c r="B39" s="36"/>
       <c r="C39" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="42" t="s">
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -1500,19 +1505,19 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="43"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="41" t="s">
+      <c r="A42" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="42" t="s">
         <v>29</v>
       </c>
       <c r="C42" s="16" t="s">
@@ -1520,13 +1525,13 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
-      <c r="B43" s="42"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
       <c r="C43" s="22"/>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="23"/>
     </row>
     <row r="45" spans="1:3" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1537,121 +1542,116 @@
         <v>34</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="41" t="s">
-        <v>91</v>
+      <c r="B46" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="C46" s="38" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A47" s="44"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B52" s="41" t="s">
-        <v>44</v>
+      <c r="A52" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="42" t="s">
+        <v>42</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
-      <c r="B53" s="42"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
       <c r="C53" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="44"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="10"/>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="44"/>
+      <c r="B56" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="10"/>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" s="38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="43"/>
-      <c r="B56" s="10" t="s">
+      <c r="C56" s="37" t="s">
         <v>47</v>
-      </c>
-      <c r="C56" s="37" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="A40:A41"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="B52:B54"/>
     <mergeCell ref="A55:A56"/>
@@ -1659,6 +1659,11 @@
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A40:A41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C21" r:id="rId1" display="https://www.anaconda.com/blog/six-soft-skills-for-every-data-scientist" xr:uid="{B763A0E9-D28D-4C09-8759-A058B3321BD2}"/>

--- a/CourseSchedule.xlsx
+++ b/CourseSchedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uark-my.sharepoint.com/personal/xz035_uark_edu/Documents/GitHub/DataAnalytics/DataAnalytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{B8D73529-74C1-42A9-98F4-E92A75EF499E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FED3D79E-283D-460A-A8C1-C776109316E1}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="13_ncr:1_{B8D73529-74C1-42A9-98F4-E92A75EF499E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3E72D8D7-A1F8-4C14-9F7A-C8E637EC8953}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BAE26134-B1F6-421C-B389-58AA43703389}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="29692" windowHeight="11949" xr2:uid="{BAE26134-B1F6-421C-B389-58AA43703389}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
   <si>
     <t>Week</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>Week 12</t>
-  </si>
-  <si>
-    <t>Working with Portfolios And Indices; Asset allocation</t>
   </si>
   <si>
     <t>Week 13</t>
@@ -283,9 +280,6 @@
   </si>
   <si>
     <t>Regular Expression (1)-Intro</t>
-  </si>
-  <si>
-    <t>Homework 3 due. Homework 4 assigned.</t>
   </si>
   <si>
     <t>If Statement</t>
@@ -356,21 +350,6 @@
   </si>
   <si>
     <r>
-      <t>Analyzing Stock Data; Regression Analysis; CAPM and Factor Model (2) --</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Workshops</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Chapter 7;</t>
     </r>
     <r>
@@ -429,12 +408,37 @@
   <si>
     <t>Financial Data Sources; Introduction to Fixed income Data;</t>
   </si>
+  <si>
+    <t>Working with Portfolios And Indices; Asset allocation, Analyzing Stock Data; Regression Analysis; CAPM and Factor Model (2)</t>
+  </si>
+  <si>
+    <t>Workshops</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Homework3 and 4 assigned
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>https://www.github.com/CinderZhang/Edgar</t>
+    </r>
+  </si>
+  <si>
+    <t>Parse Edgar 10K--https://www.github.com/CinderZhang/Edgar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,6 +564,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1184,133 +1195,133 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09660D08-651A-4613-97E3-8EE97D7A01E7}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:B54"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="3" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.4609375" customWidth="1"/>
+    <col min="2" max="2" width="43.84375" customWidth="1"/>
+    <col min="3" max="3" width="81.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="19.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="40" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="39" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="C4" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>67</v>
-      </c>
       <c r="C5" s="19"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="15"/>
       <c r="B10" s="19"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="19"/>
     </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A12" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="19"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="19"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="B13" s="19"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="19"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="B14" s="19"/>
+    </row>
+    <row r="15" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A15" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="19"/>
-    </row>
-    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="B15" s="19"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="19"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="B16" s="19"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="19"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
-        <v>74</v>
-      </c>
       <c r="B17" s="19"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="15"/>
       <c r="B18" s="19"/>
     </row>
-    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1321,7 +1332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.4">
       <c r="A20" s="42" t="s">
         <v>3</v>
       </c>
@@ -1332,7 +1343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A21" s="43"/>
       <c r="B21" s="4" t="s">
         <v>5</v>
@@ -1341,84 +1352,84 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="43"/>
       <c r="B22" s="5"/>
       <c r="C22" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="44"/>
       <c r="B23" s="6"/>
       <c r="C23" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.4">
       <c r="A24" s="42" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A25" s="43"/>
       <c r="B25" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A26" s="43"/>
       <c r="B26" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A27" s="43"/>
       <c r="B27" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="43"/>
       <c r="B28" s="26"/>
       <c r="C28" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="44"/>
       <c r="B29" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="10"/>
     </row>
-    <row r="30" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="60" x14ac:dyDescent="0.4">
       <c r="A30" s="42" t="s">
         <v>14</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A31" s="43"/>
       <c r="B31" s="3" t="s">
         <v>15</v>
@@ -1427,30 +1438,30 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A32" s="43"/>
       <c r="B32" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="43"/>
       <c r="B33" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="8"/>
     </row>
-    <row r="34" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="44"/>
       <c r="B34" s="6"/>
       <c r="C34" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A35" s="45" t="s">
         <v>19</v>
       </c>
@@ -1458,10 +1469,10 @@
         <v>20</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A36" s="46"/>
       <c r="B36" s="32" t="s">
         <v>15</v>
@@ -1470,30 +1481,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A37" s="46"/>
       <c r="B37" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A38" s="46"/>
       <c r="B38" s="32"/>
       <c r="C38" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="47"/>
       <c r="B39" s="36"/>
       <c r="C39" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A40" s="42" t="s">
         <v>25</v>
       </c>
@@ -1504,16 +1515,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="30.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="44"/>
       <c r="B41" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A42" s="42" t="s">
         <v>28</v>
       </c>
@@ -1524,17 +1535,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="43"/>
       <c r="B43" s="43"/>
       <c r="C43" s="22"/>
     </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="44"/>
       <c r="B44" s="44"/>
       <c r="C44" s="23"/>
     </row>
-    <row r="45" spans="1:3" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="90.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="14" t="s">
         <v>31</v>
       </c>
@@ -1542,112 +1553,112 @@
         <v>34</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A46" s="42" t="s">
         <v>33</v>
       </c>
       <c r="B46" s="42" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C46" s="38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="44"/>
       <c r="B47" s="44"/>
       <c r="C47" s="41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="90" x14ac:dyDescent="0.4">
       <c r="A48" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="20" t="s">
         <v>37</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="31" t="s">
         <v>38</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="45.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B51" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="42" t="s">
+      <c r="B52" s="42" t="s">
         <v>41</v>
-      </c>
-      <c r="B52" s="42" t="s">
-        <v>42</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A53" s="43"/>
       <c r="B53" s="43"/>
       <c r="C53" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="10"/>
     </row>
-    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A55" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C55" s="38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="44"/>
       <c r="B56" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/CourseSchedule.xlsx
+++ b/CourseSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uark-my.sharepoint.com/personal/xz035_uark_edu/Documents/GitHub/DataAnalytics/DataAnalytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="13_ncr:1_{B8D73529-74C1-42A9-98F4-E92A75EF499E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3E72D8D7-A1F8-4C14-9F7A-C8E637EC8953}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{B8D73529-74C1-42A9-98F4-E92A75EF499E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9601B081-BFEE-4AEF-9FC4-ECB66140FE5C}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="29692" windowHeight="11949" xr2:uid="{BAE26134-B1F6-421C-B389-58AA43703389}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
   <si>
     <t>Week</t>
   </si>
@@ -132,9 +132,6 @@
     <t>Week 7</t>
   </si>
   <si>
-    <t>Lecture Notes</t>
-  </si>
-  <si>
     <t>Week 8</t>
   </si>
   <si>
@@ -156,22 +153,7 @@
     <t>Week 12</t>
   </si>
   <si>
-    <t>Week 13</t>
-  </si>
-  <si>
-    <t>Working with Fixed Income Data; Yield; Duration; Default Risk</t>
-  </si>
-  <si>
-    <t>Homework 4 due.</t>
-  </si>
-  <si>
-    <t>Week 14-16</t>
-  </si>
-  <si>
     <t>Presentation by the last class(es)</t>
-  </si>
-  <si>
-    <t>Team Project Due.</t>
   </si>
   <si>
     <t>Peer Evaluation Due.</t>
@@ -326,6 +308,94 @@
   </si>
   <si>
     <r>
+      <t>Chapter 7;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Homework  1 due.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Homework 2 assigned.</t>
+    </r>
+  </si>
+  <si>
+    <t>WRDS</t>
+  </si>
+  <si>
+    <t>https://wrds-www.wharton.upenn.edu/pages/dart-pathways/</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>Financial Data Analytics I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Textual analysis and Sentiment Analysis;  Python Package: Panda, Numpy
+</t>
+  </si>
+  <si>
+    <t>Homework 3 assigned.
+Reading: https://wrds-www.wharton.upenn.edu/pages/classroom/
+Text Analysis
+Sentiment Analysis
+https://www.dataiku.com/stories/bringing-natural-language-processing-to-the-enterprise/</t>
+  </si>
+  <si>
+    <t>Dataiku Workshop;</t>
+  </si>
+  <si>
+    <t>Lecture Notes, 
+WRDS:
+https://wrds-web.wharton.upenn.edu/wrds//ds/wrdsapps/wrdsbondret/index.cfm
+Bloomberg: 
+https://guides.library.yale.edu/Bloomberg/bloomberg_docs
+https://researchguides.smu.edu.sg/c.php?g=421858&amp;p=2882457</t>
+  </si>
+  <si>
+    <t>Financial Data Sources; Introduction to Fixed income Data;</t>
+  </si>
+  <si>
+    <t>Workshops</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Homework3 and 4 assigned
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>https://www.github.com/CinderZhang/Edgar</t>
+    </r>
+  </si>
+  <si>
+    <t>Parse Edgar 10K--https://www.github.com/CinderZhang/Edgar</t>
+  </si>
+  <si>
+    <t>Workflow of information driven portfolio construction and evaluation</t>
+  </si>
+  <si>
+    <t>Week 13-16</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Project focus weeks-- </t>
     </r>
     <r>
@@ -347,91 +417,17 @@
       </rPr>
       <t>.</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>Chapter 7;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Homework  1 due.</t>
-    </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> Homework 2 assigned.</t>
+      <t xml:space="preserve"> Teams report and ask about the project(s).</t>
     </r>
   </si>
   <si>
-    <t>WRDS</t>
-  </si>
-  <si>
-    <t>https://wrds-www.wharton.upenn.edu/pages/dart-pathways/</t>
-  </si>
-  <si>
-    <t>Resources</t>
-  </si>
-  <si>
-    <t>Financial Data Analytics I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Textual analysis and Sentiment Analysis;  Python Package: Panda, Numpy
-</t>
-  </si>
-  <si>
-    <t>Homework 3 assigned.
-Reading: https://wrds-www.wharton.upenn.edu/pages/classroom/
-Text Analysis
-Sentiment Analysis
-https://www.dataiku.com/stories/bringing-natural-language-processing-to-the-enterprise/</t>
-  </si>
-  <si>
-    <t>Dataiku Workshop;</t>
-  </si>
-  <si>
-    <t>Lecture Notes, 
-WRDS:
-https://wrds-web.wharton.upenn.edu/wrds//ds/wrdsapps/wrdsbondret/index.cfm
-Bloomberg: 
-https://guides.library.yale.edu/Bloomberg/bloomberg_docs
-https://researchguides.smu.edu.sg/c.php?g=421858&amp;p=2882457</t>
-  </si>
-  <si>
-    <t>Financial Data Sources; Introduction to Fixed income Data;</t>
-  </si>
-  <si>
-    <t>Working with Portfolios And Indices; Asset allocation, Analyzing Stock Data; Regression Analysis; CAPM and Factor Model (2)</t>
-  </si>
-  <si>
-    <t>Workshops</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Homework3 and 4 assigned
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="9"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>https://www.github.com/CinderZhang/Edgar</t>
-    </r>
-  </si>
-  <si>
-    <t>Parse Edgar 10K--https://www.github.com/CinderZhang/Edgar</t>
+    <t>all homework and Projects Due.</t>
   </si>
 </sst>
 </file>
@@ -1193,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09660D08-651A-4613-97E3-8EE97D7A01E7}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1208,7 +1204,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="40" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.4">
@@ -1216,59 +1212,59 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="39" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="15" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="15" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="15" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="15" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
@@ -1277,43 +1273,43 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="39" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B11" s="19"/>
     </row>
     <row r="12" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A12" s="33" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B12" s="19"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="34" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B13" s="19"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="34" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B14" s="19"/>
     </row>
     <row r="15" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A15" s="33" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B15" s="19"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="34" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B16" s="19"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="34" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B17" s="19"/>
     </row>
@@ -1363,7 +1359,7 @@
       <c r="A23" s="44"/>
       <c r="B23" s="6"/>
       <c r="C23" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.4">
@@ -1371,7 +1367,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>11</v>
@@ -1383,22 +1379,22 @@
         <v>10</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A26" s="43"/>
       <c r="B26" s="24" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A27" s="43"/>
       <c r="B27" s="25" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>13</v>
@@ -1408,7 +1404,7 @@
       <c r="A28" s="43"/>
       <c r="B28" s="26"/>
       <c r="C28" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
@@ -1423,10 +1419,10 @@
         <v>14</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1444,13 +1440,13 @@
         <v>16</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="43"/>
       <c r="B33" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C33" s="8"/>
     </row>
@@ -1469,7 +1465,7 @@
         <v>20</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1484,7 +1480,7 @@
     <row r="37" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A37" s="46"/>
       <c r="B37" s="35" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>22</v>
@@ -1521,7 +1517,7 @@
         <v>16</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.4">
@@ -1550,131 +1546,106 @@
         <v>31</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A46" s="42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B46" s="42" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="44"/>
       <c r="B47" s="44"/>
       <c r="C47" s="41" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="90" x14ac:dyDescent="0.4">
       <c r="A48" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30.45" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" s="38" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="45.45" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="14" t="s">
+      <c r="B51" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.4">
+      <c r="A52" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="44"/>
+      <c r="B53" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="42" t="s">
+      <c r="C53" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B52" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="44"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="10"/>
-    </row>
-    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.4">
-      <c r="A55" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" s="38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.45" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="44"/>
-      <c r="B56" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" s="37" t="s">
-        <v>46</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
+  <mergeCells count="10">
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A29"/>
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="A35:A39"/>
     <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C21" r:id="rId1" display="https://www.anaconda.com/blog/six-soft-skills-for-every-data-scientist" xr:uid="{B763A0E9-D28D-4C09-8759-A058B3321BD2}"/>
